--- a/DataDrivenFrameworkProj2/src/test/resources/Projectexcel.xlsx
+++ b/DataDrivenFrameworkProj2/src/test/resources/Projectexcel.xlsx
@@ -42,7 +42,7 @@
     <t>wwxxww</t>
   </si>
   <si>
-    <t>jsfglg3@gmail.com</t>
+    <t>jsfglggfdgfdgh3@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/DataDrivenFrameworkProj2/src/test/resources/Projectexcel.xlsx
+++ b/DataDrivenFrameworkProj2/src/test/resources/Projectexcel.xlsx
@@ -42,7 +42,7 @@
     <t>wwxxww</t>
   </si>
   <si>
-    <t>jsfglggfdgfdgh3@gmail.com</t>
+    <t>jsfglsf;lmdgh3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="jsfglsfdgh3@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/DataDrivenFrameworkProj2/src/test/resources/Projectexcel.xlsx
+++ b/DataDrivenFrameworkProj2/src/test/resources/Projectexcel.xlsx
@@ -42,7 +42,7 @@
     <t>wwxxww</t>
   </si>
   <si>
-    <t>jsfglsf;lmdgh3@gmail.com</t>
+    <t>jsfglhgdsh3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="jsfglsfdgh3@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/DataDrivenFrameworkProj2/src/test/resources/Projectexcel.xlsx
+++ b/DataDrivenFrameworkProj2/src/test/resources/Projectexcel.xlsx
@@ -42,7 +42,7 @@
     <t>wwxxww</t>
   </si>
   <si>
-    <t>jsfglhgdsh3@gmail.com</t>
+    <t>jsfglhgjkhdsh3@gmail.com</t>
   </si>
 </sst>
 </file>
